--- a/mcmaster_excel/Sealing_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/Sealing_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,149 +434,113 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>For Max.Hole Dia.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>O-Ring TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Max.Pressure, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>For Max.Hole Dia.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>O-Ring TemperatureRange, °F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,500</t>
+          <t>Max.Pressure, psi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90825A102</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$15.08</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -626,12 +590,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>90825A107</t>
+          <t>90825A102</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15.36</t>
+          <t>$15.69</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -648,7 +612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +662,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90825A109</t>
+          <t>90825A107</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -730,22 +694,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -770,17 +734,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90825A120</t>
+          <t>90825A109</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -792,7 +756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,7 +806,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90825A122</t>
+          <t>90825A120</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -864,7 +828,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +878,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90825A125</t>
+          <t>90825A122</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +900,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +950,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90825A127</t>
+          <t>90825A125</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +972,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +1022,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90825A129</t>
+          <t>90825A127</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11.39</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +1044,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,17 +1054,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.238"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.127"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1115,7 +1079,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-30° to 250°</t>
+          <t>-40° to 225°</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1130,17 +1094,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90825A831</t>
+          <t>90825A129</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1116,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1187,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>-30° to 250°</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1202,12 +1166,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90825A140</t>
+          <t>90825A831</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1188,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1274,12 +1238,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90825A142</t>
+          <t>90825A140</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1260,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1346,12 +1310,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90825A144</t>
+          <t>90825A142</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1332,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,7 +1382,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90825A146</t>
+          <t>90825A144</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1440,7 +1404,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1454,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90825A148</t>
+          <t>90825A146</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1476,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1562,12 +1526,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90825A150</t>
+          <t>90825A148</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1548,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,12 +1598,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90825A152</t>
+          <t>90825A150</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1620,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1666,22 +1630,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.294"</t>
+          <t>0.238"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.127"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1691,7 +1655,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-30° to 250°</t>
+          <t>-40° to 225°</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1706,17 +1670,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90825A832</t>
+          <t>90825A152</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1728,7 +1692,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1763,7 +1727,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>-30° to 250°</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1778,12 +1742,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90825A160</t>
+          <t>90825A832</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1764,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1850,12 +1814,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90825A162</t>
+          <t>90825A160</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,7 +1836,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1922,12 +1886,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90825A164</t>
+          <t>90825A162</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,7 +1958,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90825A166</t>
+          <t>90825A164</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2016,7 +1980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +2030,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90825A168</t>
+          <t>90825A166</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2052,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2102,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90825A170</t>
+          <t>90825A168</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2124,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2210,12 +2174,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90825A172</t>
+          <t>90825A170</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2196,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2282,12 +2246,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90825A174</t>
+          <t>90825A172</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2304,7 +2268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2354,12 +2318,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90825A176</t>
+          <t>90825A174</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2340,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2386,17 +2350,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.294"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.177"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2426,17 +2390,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90825A180</t>
+          <t>90825A176</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2448,7 +2412,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2462,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90825A182</t>
+          <t>90825A180</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2484,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2570,12 +2534,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90825A185</t>
+          <t>90825A182</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2556,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2642,12 +2606,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90825A187</t>
+          <t>90825A185</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2628,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2714,12 +2678,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90825A189</t>
+          <t>90825A187</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,7 +2700,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,17 +2710,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.403"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.204"</t>
+          <t>0.177"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2771,7 +2735,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-30° to 250°</t>
+          <t>-40° to 225°</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2786,17 +2750,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90825A833</t>
+          <t>90825A189</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2772,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2858,12 +2822,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90825A834</t>
+          <t>90825A833</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,7 +2844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2930,12 +2894,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90825A835</t>
+          <t>90825A834</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2952,7 +2916,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3002,12 +2966,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90825A836</t>
+          <t>90825A835</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3024,7 +2988,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3074,12 +3038,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90825A837</t>
+          <t>90825A836</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3096,7 +3060,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3116,7 +3080,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.204"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3146,7 +3110,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90825A838</t>
+          <t>90825A837</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3156,7 +3120,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3168,7 +3132,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3203,7 +3167,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>-30° to 250°</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3218,12 +3182,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90825A192</t>
+          <t>90825A838</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3240,7 +3204,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3290,12 +3254,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90825A194</t>
+          <t>90825A192</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3312,7 +3276,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3362,12 +3326,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90825A196</t>
+          <t>90825A194</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3384,7 +3348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3434,12 +3398,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>90825A199</t>
+          <t>90825A196</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3456,7 +3420,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3506,12 +3470,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90825A201</t>
+          <t>90825A199</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3528,7 +3492,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3563,7 +3527,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-30° to 250°</t>
+          <t>-40° to 225°</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3573,17 +3537,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90825A839</t>
+          <t>90825A201</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>14.68</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3600,7 +3564,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3610,22 +3574,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.517"</t>
+          <t>0.403"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3650,17 +3614,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90825A840</t>
+          <t>90825A839</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>14.68</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3672,7 +3636,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3707,7 +3671,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>-30° to 250°</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3722,12 +3686,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90825A210</t>
+          <t>90825A840</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3744,7 +3708,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3794,12 +3758,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90825A213</t>
+          <t>90825A210</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3780,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3866,12 +3830,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90825A216</t>
+          <t>90825A213</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3888,7 +3852,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3908,7 +3872,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.269"</t>
+          <t>0.265"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3923,7 +3887,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-30° to 250°</t>
+          <t>-40° to 225°</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3938,17 +3902,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>90825A841</t>
+          <t>90825A216</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3960,7 +3924,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3970,22 +3934,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>0.517"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.269"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3995,7 +3959,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-20° to 400°</t>
+          <t>-30° to 250°</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4005,34 +3969,34 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>90825A302</t>
+          <t>90825A841</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0-80</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel with Fluoroelastomer Rubber O-Ring</t>
+          <t>18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4082,12 +4046,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>90825A307</t>
+          <t>90825A302</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4104,7 +4068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4154,12 +4118,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>90825A309</t>
+          <t>90825A307</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>13.63</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4176,7 +4140,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4186,22 +4150,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4226,17 +4190,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>90825A320</t>
+          <t>90825A309</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4248,7 +4212,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4298,7 +4262,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>90825A322</t>
+          <t>90825A320</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4320,7 +4284,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4370,12 +4334,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>90825A325</t>
+          <t>90825A322</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4392,7 +4356,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4442,12 +4406,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>90825A327</t>
+          <t>90825A325</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4464,7 +4428,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4514,12 +4478,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>90825A329</t>
+          <t>90825A327</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4536,7 +4500,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4546,17 +4510,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.238"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.127"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4586,17 +4550,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>90825A853</t>
+          <t>90825A329</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4608,7 +4572,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4658,12 +4622,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>90825A340</t>
+          <t>90825A853</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4680,7 +4644,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4730,12 +4694,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>90825A342</t>
+          <t>90825A340</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4752,7 +4716,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4802,12 +4766,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>90825A344</t>
+          <t>90825A342</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4824,7 +4788,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4874,12 +4838,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>90825A346</t>
+          <t>90825A344</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4896,7 +4860,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4946,7 +4910,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>90825A348</t>
+          <t>90825A346</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4968,7 +4932,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5018,12 +4982,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>90825A350</t>
+          <t>90825A348</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5040,7 +5004,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5090,12 +5054,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>90825A352</t>
+          <t>90825A350</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5112,7 +5076,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5122,22 +5086,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.294"</t>
+          <t>0.238"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.127"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5162,17 +5126,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>90825A854</t>
+          <t>90825A352</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5184,7 +5148,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5234,12 +5198,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>90825A360</t>
+          <t>90825A854</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5256,7 +5220,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5306,12 +5270,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>90825A362</t>
+          <t>90825A360</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5328,7 +5292,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5378,12 +5342,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>90825A364</t>
+          <t>90825A362</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5400,7 +5364,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5450,7 +5414,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>90825A366</t>
+          <t>90825A364</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5472,7 +5436,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5522,12 +5486,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>90825A368</t>
+          <t>90825A366</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5544,7 +5508,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5594,7 +5558,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>90825A370</t>
+          <t>90825A368</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5616,7 +5580,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5666,12 +5630,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>90825A372</t>
+          <t>90825A370</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5688,7 +5652,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5738,12 +5702,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>90825A376</t>
+          <t>90825A372</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5760,7 +5724,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5770,17 +5734,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.294"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.177"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5810,17 +5774,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>90825A380</t>
+          <t>90825A376</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5832,7 +5796,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5882,12 +5846,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>90825A382</t>
+          <t>90825A380</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5904,7 +5868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5954,12 +5918,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>90825A385</t>
+          <t>90825A382</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5976,7 +5940,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6026,12 +5990,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>90825A387</t>
+          <t>90825A385</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6048,7 +6012,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6098,12 +6062,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>90825A389</t>
+          <t>90825A387</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6120,7 +6084,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6130,17 +6094,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.403"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.204"</t>
+          <t>0.177"</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6170,17 +6134,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>90825A855</t>
+          <t>90825A389</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6192,7 +6156,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6242,12 +6206,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>90825A856</t>
+          <t>90825A855</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6264,7 +6228,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6314,12 +6278,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>90825A857</t>
+          <t>90825A856</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6336,7 +6300,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6356,7 +6320,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.204"</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6386,17 +6350,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>90825A860</t>
+          <t>90825A857</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>15.48</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6408,7 +6372,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6458,12 +6422,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>90825A392</t>
+          <t>90825A860</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6480,7 +6444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6530,12 +6494,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>90825A394</t>
+          <t>90825A392</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6552,7 +6516,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6602,12 +6566,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>90825A396</t>
+          <t>90825A394</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6624,7 +6588,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6674,12 +6638,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>90825A399</t>
+          <t>90825A396</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6696,7 +6660,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6746,12 +6710,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>90825A401</t>
+          <t>90825A399</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6768,7 +6732,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6813,17 +6777,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>90825A861</t>
+          <t>90825A401</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6840,7 +6804,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6850,22 +6814,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.517"</t>
+          <t>0.403"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6890,17 +6854,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>90825A862</t>
+          <t>90825A861</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6912,7 +6876,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6962,12 +6926,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>90825A410</t>
+          <t>90825A862</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6984,7 +6948,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7034,12 +6998,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>90825A413</t>
+          <t>90825A410</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7056,7 +7020,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7106,12 +7070,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>90825A416</t>
+          <t>90825A413</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -7128,7 +7092,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7148,7 +7112,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.269"</t>
+          <t>0.265"</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7178,17 +7142,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>90825A863</t>
+          <t>90825A416</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7200,7 +7164,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7210,22 +7174,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>0.517"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.269"</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7235,7 +7199,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-80° to 400°</t>
+          <t>-20° to 400°</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7245,34 +7209,34 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>90825A515</t>
+          <t>90825A863</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0-80</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel with Silicone Rubber O-Ring</t>
+          <t>18-8 Stainless Steel with Fluoroelastomer Rubber O-Ring</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7322,12 +7286,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>90825A520</t>
+          <t>90825A515</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>14.57</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7344,7 +7308,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7394,12 +7358,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>90825A525</t>
+          <t>90825A520</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7416,7 +7380,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7426,22 +7390,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7466,17 +7430,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>90825A560</t>
+          <t>90825A525</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>14.57</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7488,7 +7452,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7538,7 +7502,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>90825A565</t>
+          <t>90825A560</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7560,7 +7524,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7610,12 +7574,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>90825A570</t>
+          <t>90825A565</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7632,7 +7596,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7682,12 +7646,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>90825A575</t>
+          <t>90825A570</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7704,7 +7668,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7754,12 +7718,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>90825A580</t>
+          <t>90825A575</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7776,7 +7740,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7786,17 +7750,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.238"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.127"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7826,17 +7790,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>90825A842</t>
+          <t>90825A580</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7848,7 +7812,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7898,12 +7862,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>90825A613</t>
+          <t>90825A842</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7920,7 +7884,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7970,12 +7934,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>90825A614</t>
+          <t>90825A613</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7992,7 +7956,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8042,12 +8006,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>90825A615</t>
+          <t>90825A614</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8064,7 +8028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8114,7 +8078,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>90825A618</t>
+          <t>90825A615</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8136,7 +8100,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8186,12 +8150,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>90825A619</t>
+          <t>90825A618</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8208,7 +8172,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8258,12 +8222,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>90825A622</t>
+          <t>90825A619</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8280,7 +8244,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8330,12 +8294,12 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>90825A628</t>
+          <t>90825A622</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8352,7 +8316,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8362,22 +8326,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.294"</t>
+          <t>0.238"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.127"</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8402,17 +8366,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>90825A843</t>
+          <t>90825A628</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8424,7 +8388,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8474,12 +8438,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>90825A713</t>
+          <t>90825A843</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -8496,7 +8460,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8546,12 +8510,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>90825A714</t>
+          <t>90825A713</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8568,7 +8532,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8618,12 +8582,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>90825A715</t>
+          <t>90825A714</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -8640,7 +8604,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8690,12 +8654,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>90825A717</t>
+          <t>90825A715</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -8712,7 +8676,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8762,12 +8726,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>90825A719</t>
+          <t>90825A717</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8784,7 +8748,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8834,7 +8798,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>90825A721</t>
+          <t>90825A719</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8856,7 +8820,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8906,12 +8870,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>90825A725</t>
+          <t>90825A721</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8928,7 +8892,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8978,12 +8942,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>90825A731</t>
+          <t>90825A725</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -9000,7 +8964,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9050,12 +9014,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>90825A738</t>
+          <t>90825A731</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -9072,7 +9036,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9082,17 +9046,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.294"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.177"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -9122,17 +9086,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>90825A800</t>
+          <t>90825A738</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9144,7 +9108,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9194,12 +9158,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>90825A814</t>
+          <t>90825A800</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9216,7 +9180,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9266,12 +9230,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>90825A816</t>
+          <t>90825A814</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9288,7 +9252,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9338,12 +9302,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>90825A819</t>
+          <t>90825A816</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -9360,7 +9324,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9410,12 +9374,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>90825A825</t>
+          <t>90825A819</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -9432,7 +9396,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9442,17 +9406,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.403"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.204"</t>
+          <t>0.177"</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -9482,7 +9446,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>90825A844</t>
+          <t>90825A825</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9492,7 +9456,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9504,7 +9468,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9554,12 +9518,12 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>90825A845</t>
+          <t>90825A844</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9576,7 +9540,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9626,12 +9590,12 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>90825A846</t>
+          <t>90825A845</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9648,7 +9612,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9698,12 +9662,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>90825A847</t>
+          <t>90825A846</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -9720,7 +9684,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9770,12 +9734,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>90825A848</t>
+          <t>90825A847</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9792,7 +9756,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9812,7 +9776,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.204"</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9842,7 +9806,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>90825A849</t>
+          <t>90825A848</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9852,7 +9816,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9864,7 +9828,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9914,12 +9878,12 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>90825A900</t>
+          <t>90825A849</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9936,7 +9900,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9986,12 +9950,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>90825A916</t>
+          <t>90825A900</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10008,7 +9972,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10058,12 +10022,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>90825A918</t>
+          <t>90825A916</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10080,7 +10044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10130,12 +10094,12 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>90825A919</t>
+          <t>90825A918</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -10152,7 +10116,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10202,12 +10166,12 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>90825A921</t>
+          <t>90825A919</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -10224,7 +10188,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10269,17 +10233,17 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>90825A850</t>
+          <t>90825A921</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>14.68</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -10296,7 +10260,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10306,22 +10270,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.517"</t>
+          <t>0.403"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -10346,17 +10310,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>90825A851</t>
+          <t>90825A850</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>14.68</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10368,7 +10332,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10418,12 +10382,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>90825A950</t>
+          <t>90825A851</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -10440,7 +10404,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10490,12 +10454,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>90825A953</t>
+          <t>90825A950</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -10512,7 +10476,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10562,12 +10526,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>90825A955</t>
+          <t>90825A953</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -10584,70 +10548,142 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0.517"</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>90825A955</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel with Silicone Rubber O-Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>1/2"</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>0.517"</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>0.269"</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>-80° to 400°</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>90825A852</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>9.19</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>1/4"-28</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="N143" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel with Silicone Rubber O-Ring</t>
         </is>
